--- a/data-raw/auris_and_albicans/HYS7.xlsx
+++ b/data-raw/auris_and_albicans/HYS7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveta\Documents\B Lab\cross-tolerance\data-raw\auris_and_albicans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FECA6B2-DF0A-41B0-89FA-0A3F1DE4397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639AB2D-9DEA-4D44-9420-CFF0E3E9FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{416B0376-EACE-4FE1-8614-EDCA28D0841F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="30">
   <si>
     <t>well</t>
   </si>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -201,6 +207,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7BE5E-5607-4174-8537-91D979FCA955}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +901,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.31150001290000001</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.3700000050000002E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.18729999659999999</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.1500999928</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.1741999984</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.10109999779999999</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.15430000420000001</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5.0999999050000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0.20520000159999999</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0.15899999440000001</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>5.2200000730000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0.3131000102</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5.2099999039999997E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.4577000141</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.29910001159999999</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0.1226999983</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.26940000060000002</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.1344999969</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.23849999899999999</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>5.0999999050000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.30059999230000001</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5.090000108E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.31769999859999998</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.3258000016</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -901,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC13E9DF-09E4-407F-8366-BC4EEB418F27}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,6 +1602,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>8.76000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.2299998700000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.1014999971</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>8.0099999899999996E-2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>8.5900001229999995E-2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.12129999700000001</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>9.7099997100000002E-2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5.7900000360000002E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>9.3500003220000003E-2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>8.9599996809999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>5.240000039E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0.11789999900000001</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5.1500000060000002E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.1096000001</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>9.009999782E-2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0.15119999649999999</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.1085999981</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>9.1799996790000005E-2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>8.6900003249999996E-2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>5.2900001410000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.13959999379999999</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5.3599998349999997E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.1636999995</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.25679999590000002</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1266,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8F75F-36F4-4DFB-86F0-ACB61B088856}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +2303,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.50360000130000004</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.4400000720000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.23409999910000001</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.25290000439999999</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.34560000899999999</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.30540001389999999</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.26019999379999997</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5.4400000720000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0.17790000140000001</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0.1808000058</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>5.3300000729999998E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0.19740000369999999</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5.1100000739999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.23939999940000001</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.17880000169999999</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0.1121999994</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.2036000043</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.1921000034</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.1682000011</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>5.2299998700000003E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.16429999470000001</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5.0700001420000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.35289999840000003</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.36689999699999998</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1631,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3944297D-12CA-4BA2-B535-6673F8F0643F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,6 +3004,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.1948000044</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.2900001410000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.4361999929</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.35640001300000002</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0.1008000001</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>9.7000002860000004E-2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5.6699998680000002E-2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>5.6499999019999997E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0.1238999963</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0.1203999966</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>5.0599999729999998E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>6.8800002339999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5.1699999720000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>6.6299997269999994E-2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5.2000001070000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5.2799999709999997E-2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.3454000056</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.25090000029999998</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.23299999539999999</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>5.2000001070000003E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.32170000669999999</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5.319999903E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.29440000649999998</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.3819000125</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/auris_and_albicans/HYS7.xlsx
+++ b/data-raw/auris_and_albicans/HYS7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveta\Documents\B Lab\cross-tolerance\data-raw\auris_and_albicans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639AB2D-9DEA-4D44-9420-CFF0E3E9FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25CEAC-DF3C-4DBC-B1E1-09C5788915FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{416B0376-EACE-4FE1-8614-EDCA28D0841F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="30">
   <si>
     <t>well</t>
   </si>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7BE5E-5607-4174-8537-91D979FCA955}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,17 +1237,690 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0.27849999069999998</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>5.1100000739999998E-2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.60210001469999996</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.35510000590000002</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.50529998539999998</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.25540000200000001</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.27990001440000001</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>5.119999871E-2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0.32469999789999998</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.2872000039</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>4.9800001080000003E-2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.3434999883</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>5.0000000750000002E-2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0.3440000117</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.54089999200000005</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.33349999790000001</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0.56470000740000004</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0.53320002560000002</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.45550000670000002</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5.0500001760000003E-2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0.49660000209999999</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>5.0500001760000003E-2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.49450001119999998</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.51270002130000003</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.4348999858</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>0.1495999992</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.75690001250000005</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.59899997709999997</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.6197999716</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.42519998549999999</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0.45730000729999998</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>5.3500000390000003E-2</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0.4823000133</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.35379999880000002</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>4.870000109E-2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.35949999090000001</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>4.9400001759999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.4530999959</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.66839998960000002</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.54600000380000002</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.27869999410000001</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.36840000750000002</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.36419999600000003</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>5.2099999039999997E-2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.38800001140000001</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>5.1899999379999999E-2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.49410000440000001</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.4298000038</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC13E9DF-09E4-407F-8366-BC4EEB418F27}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,6 +2611,678 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0.1745000035</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>5.4499998690000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.16429999470000001</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.1225000024</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.10700000079999999</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.1018000022</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.13770000639999999</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>5.5300001059999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0.2526000142</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.1510999948</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>5.3399998689999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.1562999934</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>4.7600001099999997E-2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>5.9000000359999999E-2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>5.950000137E-2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.2167000026</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0.1576000005</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0.13539999720000001</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>7.8599996859999993E-2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5.4099999369999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0.1639000028</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>5.2200000730000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.24639999870000001</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.26249998810000003</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.13259999450000001</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>5.4099999369999999E-2</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.1085999981</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>9.3000002210000002E-2</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>6.9700002669999997E-2</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>7.6300002630000002E-2</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>9.9399998779999998E-2</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>5.3599998349999997E-2</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0.16529999670000001</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.1093999967</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>5.0500001760000003E-2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.1140000001</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>5.1100000739999998E-2</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.1165999994</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>9.8700001839999996E-2</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.21930000190000001</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.16120000179999999</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.14319999520000001</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>6.7699998619999993E-2</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>5.119999871E-2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.18520000580000001</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>5.0799999390000003E-2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.20970000329999999</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.27079999449999997</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1945,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8F75F-36F4-4DFB-86F0-ACB61B088856}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,6 +3984,678 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0.64880001539999999</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>5.3399998689999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.74019998310000001</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.64709997180000001</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.42149999739999999</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.49160000679999999</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.38539999720000001</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>5.2799999709999997E-2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0.44870001079999999</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.35890001059999999</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>4.8399999739999998E-2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.28080001469999999</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>5.1100000739999998E-2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0.47200000289999999</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.60490000249999998</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.66180002689999995</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0.44659999010000001</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0.35510000590000002</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.26789999009999999</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5.0599999729999998E-2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0.64649999140000003</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>5.319999903E-2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.46230000259999998</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.4717000127</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.93639999630000004</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>5.759999901E-2</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.98869997259999998</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.85710000990000001</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.50629997250000003</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.93409997219999996</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0.85610002279999997</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>5.0000000750000002E-2</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1.051900029</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.97009998559999999</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>4.899999872E-2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.9793000221</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>5.0000000750000002E-2</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.57459998130000001</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.9241999984</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.73390001059999999</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.89270001649999997</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.77569997310000005</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.68029999730000001</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>5.1699999720000001E-2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.82130002980000005</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>5.240000039E-2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.77369999889999996</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.83730000260000004</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2646,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3944297D-12CA-4BA2-B535-6673F8F0643F}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,6 +5357,678 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0.18340000510000001</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>5.5199999360000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.1092000008</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.1008000001</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>9.4599999490000003E-2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.1647000015</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.13210000099999999</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>5.4000001399999997E-2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0.1488000005</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.2370000035</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>5.0799999390000003E-2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.10159999879999999</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>5.1600001749999999E-2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0.13140000399999999</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.12210000310000001</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.1174999997</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0.1928000003</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>7.3600001629999995E-2</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.121100001</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5.3800001739999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0.15999999640000001</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>5.1300000399999997E-2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.14939999579999999</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.1407999992</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.2639000118</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>5.4200001060000003E-2</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.22730000319999999</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.1614000052</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.14139999449999999</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.23010000589999999</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0.23010000589999999</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>5.4299999029999997E-2</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0.28909999130000003</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.26120001079999999</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>5.0200000410000001E-2</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.1215000004</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>5.240000039E-2</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.1941000074</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.2072000057</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.22120000419999999</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.358099997</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.17080000040000001</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.1338</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>5.4000001399999997E-2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.21250000599999999</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>5.240000039E-2</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.24349999429999999</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.26280000809999998</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/auris_and_albicans/HYS7.xlsx
+++ b/data-raw/auris_and_albicans/HYS7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveta\Documents\B Lab\cross-tolerance\data-raw\auris_and_albicans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25CEAC-DF3C-4DBC-B1E1-09C5788915FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454C89A4-82DE-4222-AEA4-6077E1529104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{416B0376-EACE-4FE1-8614-EDCA28D0841F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="30">
   <si>
     <t>well</t>
   </si>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7BE5E-5607-4174-8537-91D979FCA955}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,6 +1907,342 @@
       </c>
       <c r="D97">
         <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.4298000038</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>5.090000108E-2</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.50290000440000004</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.41809999939999998</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.46039998529999998</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.31099998950000002</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0.31209999319999998</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>5.2900001410000001E-2</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.40410000089999998</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0.38470000030000001</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>5.0999999050000001E-2</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>0.42770001289999998</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>5.0099998710000003E-2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>0.43950000410000001</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.47780001160000002</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.44560000300000002</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.27230000500000001</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.31900000569999998</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.30720001460000002</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>5.1600001749999999E-2</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.40560001130000001</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>4.9899999049999998E-2</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0.37149998550000002</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>0.36259999869999998</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1917,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC13E9DF-09E4-407F-8366-BC4EEB418F27}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,6 +3619,342 @@
         <v>4</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5.7799998669999998E-2</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>5.3700000050000002E-2</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.13619999590000001</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.15549999480000001</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.145600006</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.13050000370000001</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0.1506000012</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>5.7000000029999998E-2</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.25249999760000003</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0.22020000219999999</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>5.0500001760000003E-2</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>0.14599999790000001</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>5.2299998700000003E-2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>0.14759999509999999</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.13969999550000001</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.229399994</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.28299999240000001</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.22120000419999999</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>8.5400000209999993E-2</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>5.319999903E-2</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.22840000690000001</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>5.0999999050000001E-2</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0.23549999299999999</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>0.28940001129999998</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3290,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8F75F-36F4-4DFB-86F0-ACB61B088856}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,6 +5328,342 @@
         <v>4</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.77499997620000005</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>5.119999871E-2</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.95090001820000003</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.82150000329999995</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.39890000219999999</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.86379998920000001</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0.83170002700000001</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>5.3500000390000003E-2</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.87849998470000001</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0.67580002549999996</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>5.2600000049999998E-2</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>0.79860001800000002</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>4.870000109E-2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>0.71319997310000005</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.81339997050000001</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.57169997689999996</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.97390002009999999</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.94349998239999999</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.87379997970000001</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>5.0500001760000003E-2</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.82669997220000002</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>4.9100000409999997E-2</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0.66360002760000003</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>0.65270000699999997</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4663,10 +5671,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3944297D-12CA-4BA2-B535-6673F8F0643F}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6029,6 +7037,342 @@
         <v>4</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.1868000031</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>5.2299998700000003E-2</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.1688999981</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.1938000023</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.1159999967</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.13689999280000001</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0.1542000026</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>5.4699998350000001E-2</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.1805000007</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0.2310000062</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>5.2000001070000003E-2</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>0.1052000001</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>5.119999871E-2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>0.13009999689999999</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.14569999280000001</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.2008000016</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.23080000279999999</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.1298999935</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.11590000239999999</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>5.1899999379999999E-2</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.2250999957</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>5.1300000399999997E-2</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0.2125999928</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>0.23559999470000001</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
